--- a/data/CS1/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CD216-8BE3-44B5-8EDE-B236C4175A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96978848-0B5D-4FDC-8613-40C141C0E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -180,150 +180,150 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>35.04</v>
+            <v>43.71</v>
           </cell>
           <cell r="C2">
-            <v>34.020000000000003</v>
+            <v>40.784999999999997</v>
           </cell>
           <cell r="D2">
-            <v>30</v>
+            <v>39.052499999999995</v>
           </cell>
           <cell r="E2">
-            <v>30.03</v>
+            <v>36.622500000000002</v>
           </cell>
           <cell r="F2">
-            <v>33.590000000000003</v>
+            <v>37.715000000000003</v>
           </cell>
           <cell r="G2">
-            <v>33.35</v>
+            <v>40.745000000000005</v>
           </cell>
           <cell r="H2">
-            <v>34.01</v>
+            <v>49.295000000000002</v>
           </cell>
           <cell r="I2">
-            <v>35.33</v>
+            <v>51.59</v>
           </cell>
           <cell r="J2">
-            <v>36.94</v>
+            <v>54.25</v>
           </cell>
           <cell r="K2">
-            <v>38.74</v>
+            <v>53.837499999999999</v>
           </cell>
           <cell r="L2">
-            <v>36.6</v>
+            <v>52.800000000000004</v>
           </cell>
           <cell r="M2">
-            <v>34.19</v>
+            <v>52.542499999999997</v>
           </cell>
           <cell r="N2">
-            <v>34</v>
+            <v>50.507499999999993</v>
           </cell>
           <cell r="O2">
-            <v>34</v>
+            <v>49.795000000000002</v>
           </cell>
           <cell r="P2">
-            <v>30</v>
+            <v>48.817500000000003</v>
           </cell>
           <cell r="Q2">
-            <v>28.8</v>
+            <v>48.914999999999999</v>
           </cell>
           <cell r="R2">
-            <v>29.9</v>
+            <v>49.67</v>
           </cell>
           <cell r="S2">
-            <v>38.25</v>
+            <v>52.125</v>
           </cell>
           <cell r="T2">
-            <v>39.950000000000003</v>
+            <v>54.620000000000005</v>
           </cell>
           <cell r="U2">
-            <v>41.45</v>
+            <v>55.040000000000006</v>
           </cell>
           <cell r="V2">
-            <v>44.83</v>
+            <v>53.769999999999996</v>
           </cell>
           <cell r="W2">
-            <v>44.82</v>
+            <v>50.392499999999998</v>
           </cell>
           <cell r="X2">
-            <v>40.9</v>
+            <v>45.482500000000002</v>
           </cell>
           <cell r="Y2">
-            <v>39.75</v>
+            <v>42.69</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>30.25</v>
+            <v>40.82</v>
           </cell>
           <cell r="C3">
-            <v>26.85</v>
+            <v>38.53</v>
           </cell>
           <cell r="D3">
-            <v>22.25</v>
+            <v>36.034999999999997</v>
           </cell>
           <cell r="E3">
-            <v>18.09</v>
+            <v>34.424999999999997</v>
           </cell>
           <cell r="F3">
-            <v>10</v>
+            <v>36.340000000000003</v>
           </cell>
           <cell r="G3">
-            <v>8</v>
+            <v>38.28</v>
           </cell>
           <cell r="H3">
-            <v>8.41</v>
+            <v>44.2</v>
           </cell>
           <cell r="I3">
-            <v>8.41</v>
+            <v>46.17</v>
           </cell>
           <cell r="J3">
-            <v>10.8</v>
+            <v>48.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>16.989999999999998</v>
+            <v>48.805</v>
           </cell>
           <cell r="L3">
-            <v>19.54</v>
+            <v>47.400000000000006</v>
           </cell>
           <cell r="M3">
-            <v>17.920000000000002</v>
+            <v>46.424999999999997</v>
           </cell>
           <cell r="N3">
-            <v>22.75</v>
+            <v>45.004999999999995</v>
           </cell>
           <cell r="O3">
-            <v>20</v>
+            <v>44.53</v>
           </cell>
           <cell r="P3">
-            <v>21.57</v>
+            <v>42.545000000000002</v>
           </cell>
           <cell r="Q3">
-            <v>19.399999999999999</v>
+            <v>42.21</v>
           </cell>
           <cell r="R3">
-            <v>23.8</v>
+            <v>43.08</v>
           </cell>
           <cell r="S3">
-            <v>29.3</v>
+            <v>47.5</v>
           </cell>
           <cell r="T3">
-            <v>35.270000000000003</v>
+            <v>49.730000000000004</v>
           </cell>
           <cell r="U3">
-            <v>41</v>
+            <v>50.510000000000005</v>
           </cell>
           <cell r="V3">
-            <v>43.02</v>
+            <v>50.79</v>
           </cell>
           <cell r="W3">
-            <v>43</v>
+            <v>48.534999999999997</v>
           </cell>
           <cell r="X3">
-            <v>41.37</v>
+            <v>43.954999999999998</v>
           </cell>
           <cell r="Y3">
-            <v>41.35</v>
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
@@ -404,224 +404,224 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>2.68</v>
+            <v>25.342275000000001</v>
           </cell>
           <cell r="C2">
-            <v>3.23</v>
+            <v>24.594854999999999</v>
           </cell>
           <cell r="D2">
-            <v>7.6</v>
+            <v>27.759217499999998</v>
           </cell>
           <cell r="E2">
-            <v>4.3600000000000003</v>
+            <v>30.54975</v>
           </cell>
           <cell r="F2">
-            <v>4.41</v>
+            <v>32.125005000000002</v>
           </cell>
           <cell r="G2">
-            <v>5.98</v>
+            <v>29.361535</v>
           </cell>
           <cell r="H2">
-            <v>5.19</v>
+            <v>27.199200000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.08</v>
+            <v>29.454137500000002</v>
           </cell>
           <cell r="J2">
-            <v>4.68</v>
+            <v>25.75685</v>
           </cell>
           <cell r="K2">
-            <v>4.45</v>
+            <v>23.352209999999999</v>
           </cell>
           <cell r="L2">
-            <v>6.58</v>
+            <v>22.9788</v>
           </cell>
           <cell r="M2">
-            <v>9.39</v>
+            <v>20.269462499999999</v>
           </cell>
           <cell r="N2">
-            <v>9.75</v>
+            <v>22.549799999999994</v>
           </cell>
           <cell r="O2">
-            <v>10.65</v>
+            <v>18.743400000000001</v>
           </cell>
           <cell r="P2">
-            <v>11.37</v>
+            <v>19.593999999999998</v>
           </cell>
           <cell r="Q2">
-            <v>11.01</v>
+            <v>16.172449999999998</v>
           </cell>
           <cell r="R2">
-            <v>4.37</v>
+            <v>12.758287500000002</v>
           </cell>
           <cell r="S2">
-            <v>5.17</v>
+            <v>14.871139999999999</v>
           </cell>
           <cell r="T2">
-            <v>6.09</v>
+            <v>10.08586</v>
           </cell>
           <cell r="U2">
-            <v>4.7699999999999996</v>
+            <v>8.7737250000000007</v>
           </cell>
           <cell r="V2">
-            <v>4.6399999999999997</v>
+            <v>9.8389550000000003</v>
           </cell>
           <cell r="W2">
-            <v>3.6</v>
+            <v>13.74175</v>
           </cell>
           <cell r="X2">
-            <v>4.26</v>
+            <v>16.117327500000002</v>
           </cell>
           <cell r="Y2">
-            <v>20.81</v>
+            <v>14.23521</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="C3">
-            <v>28.52</v>
+            <v>21.39</v>
           </cell>
           <cell r="D3">
-            <v>39.049999999999997</v>
+            <v>29.287499999999998</v>
           </cell>
           <cell r="E3">
-            <v>44.27</v>
+            <v>33.202500000000001</v>
           </cell>
           <cell r="F3">
-            <v>48.18</v>
+            <v>36.134999999999998</v>
           </cell>
           <cell r="G3">
-            <v>47.89</v>
+            <v>35.917500000000004</v>
           </cell>
           <cell r="H3">
-            <v>47.56</v>
+            <v>35.67</v>
           </cell>
           <cell r="I3">
-            <v>49.85</v>
+            <v>37.387500000000003</v>
           </cell>
           <cell r="J3">
-            <v>46.4</v>
+            <v>34.799999999999997</v>
           </cell>
           <cell r="K3">
-            <v>40.1</v>
+            <v>30.075000000000003</v>
           </cell>
           <cell r="L3">
-            <v>41.24</v>
+            <v>30.93</v>
           </cell>
           <cell r="M3">
-            <v>33.729999999999997</v>
+            <v>25.297499999999999</v>
           </cell>
           <cell r="N3">
-            <v>38.44</v>
+            <v>28.83</v>
           </cell>
           <cell r="O3">
-            <v>28.68</v>
+            <v>21.509999999999998</v>
           </cell>
           <cell r="P3">
-            <v>30.2</v>
+            <v>22.65</v>
           </cell>
           <cell r="Q3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="R3">
-            <v>18.190000000000001</v>
+            <v>13.642500000000002</v>
           </cell>
           <cell r="S3">
-            <v>22.68</v>
+            <v>17.009999999999998</v>
           </cell>
           <cell r="T3">
-            <v>14.82</v>
+            <v>11.115</v>
           </cell>
           <cell r="U3">
-            <v>13</v>
+            <v>9.75</v>
           </cell>
           <cell r="V3">
-            <v>14.51</v>
+            <v>10.8825</v>
           </cell>
           <cell r="W3">
-            <v>17.04</v>
+            <v>12.78</v>
           </cell>
           <cell r="X3">
-            <v>18.21</v>
+            <v>13.657500000000001</v>
           </cell>
           <cell r="Y3">
-            <v>14</v>
+            <v>10.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>16.43</v>
+            <v>27.930999999999997</v>
           </cell>
           <cell r="C4">
-            <v>15.51</v>
+            <v>26.366999999999997</v>
           </cell>
           <cell r="D4">
-            <v>16.440000000000001</v>
+            <v>27.948</v>
           </cell>
           <cell r="E4">
-            <v>16.41</v>
+            <v>27.896999999999998</v>
           </cell>
           <cell r="F4">
-            <v>16.920000000000002</v>
+            <v>28.764000000000003</v>
           </cell>
           <cell r="G4">
-            <v>14.12</v>
+            <v>24.003999999999998</v>
           </cell>
           <cell r="H4">
-            <v>12.35</v>
+            <v>20.994999999999997</v>
           </cell>
           <cell r="I4">
-            <v>11.65</v>
+            <v>19.805</v>
           </cell>
           <cell r="J4">
-            <v>10.45</v>
+            <v>17.764999999999997</v>
           </cell>
           <cell r="K4">
-            <v>9.51</v>
+            <v>16.166999999999998</v>
           </cell>
           <cell r="L4">
-            <v>7.8</v>
+            <v>13.26</v>
           </cell>
           <cell r="M4">
-            <v>7.83</v>
+            <v>13.311</v>
           </cell>
           <cell r="N4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="O4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="P4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>7.45</v>
+            <v>12.664999999999999</v>
           </cell>
           <cell r="R4">
-            <v>6.27</v>
+            <v>10.658999999999999</v>
           </cell>
           <cell r="S4">
-            <v>6.98</v>
+            <v>11.866</v>
           </cell>
           <cell r="T4">
-            <v>5.21</v>
+            <v>8.8569999999999993</v>
           </cell>
           <cell r="U4">
-            <v>5.13</v>
+            <v>8.7210000000000001</v>
           </cell>
           <cell r="V4">
-            <v>5.41</v>
+            <v>9.1969999999999992</v>
           </cell>
           <cell r="W4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="X4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
           <cell r="Y4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -858,13 +858,13 @@
             <v>24.97</v>
           </cell>
           <cell r="D2">
-            <v>0</v>
+            <v>24.97</v>
           </cell>
           <cell r="E2">
             <v>25.97</v>
           </cell>
           <cell r="F2">
-            <v>0</v>
+            <v>25.97</v>
           </cell>
           <cell r="G2">
             <v>24.97</v>
@@ -926,81 +926,81 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="C3">
-            <v>0</v>
+            <v>28.36</v>
           </cell>
           <cell r="D3">
-            <v>4.22</v>
+            <v>27.234999999999999</v>
           </cell>
           <cell r="E3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="F3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="G3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="H3">
-            <v>4.22</v>
+            <v>37.325000000000003</v>
           </cell>
           <cell r="I3">
-            <v>4.22</v>
+            <v>30.75</v>
           </cell>
           <cell r="J3">
-            <v>4.22</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>0</v>
+            <v>34.879999999999995</v>
           </cell>
           <cell r="L3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="M3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="N3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="O3">
-            <v>0</v>
+            <v>32.5</v>
           </cell>
           <cell r="P3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="Q3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="R3">
-            <v>0</v>
+            <v>34.885000000000005</v>
           </cell>
           <cell r="S3">
-            <v>5.8</v>
+            <v>36.875</v>
           </cell>
           <cell r="T3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="U3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="V3">
-            <v>6.1</v>
+            <v>36.875</v>
           </cell>
           <cell r="W3">
-            <v>5.9</v>
+            <v>35.370000000000005</v>
           </cell>
           <cell r="X3">
-            <v>5.6</v>
+            <v>30.75</v>
           </cell>
           <cell r="Y3">
-            <v>36.6</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0</v>
+            <v>31.75</v>
           </cell>
           <cell r="C4">
             <v>31.75</v>
@@ -1300,76 +1300,76 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.99</v>
+            <v>10.26</v>
           </cell>
           <cell r="C2">
-            <v>7.99</v>
+            <v>10.909500000000001</v>
           </cell>
           <cell r="D2">
-            <v>7.99</v>
+            <v>10.084849999999999</v>
           </cell>
           <cell r="E2">
-            <v>10.36</v>
+            <v>8.7750000000000004</v>
           </cell>
           <cell r="F2">
-            <v>9.69</v>
+            <v>7.9588000000000001</v>
           </cell>
           <cell r="G2">
-            <v>8.8800000000000008</v>
+            <v>6.3310499999999994</v>
           </cell>
           <cell r="H2">
-            <v>8.09</v>
+            <v>5.706900000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.99</v>
+            <v>4.8929999999999998</v>
           </cell>
           <cell r="J2">
-            <v>2.69</v>
+            <v>4.0228999999999999</v>
           </cell>
           <cell r="K2">
-            <v>4.49</v>
+            <v>4.4879999999999995</v>
           </cell>
           <cell r="L2">
-            <v>6.49</v>
+            <v>4.2223500000000005</v>
           </cell>
           <cell r="M2">
-            <v>7.74</v>
+            <v>4.0441500000000001</v>
           </cell>
           <cell r="N2">
-            <v>7.65</v>
+            <v>3.6749999999999998</v>
           </cell>
           <cell r="O2">
-            <v>8.39</v>
+            <v>4.1912000000000003</v>
           </cell>
           <cell r="P2">
-            <v>9.49</v>
+            <v>4.4894500000000006</v>
           </cell>
           <cell r="Q2">
-            <v>8.32</v>
+            <v>3.9945499999999998</v>
           </cell>
           <cell r="R2">
-            <v>7.65</v>
+            <v>2.9760000000000004</v>
           </cell>
           <cell r="S2">
-            <v>6.37</v>
+            <v>2.5608</v>
           </cell>
           <cell r="T2">
-            <v>6.49</v>
+            <v>3.0141000000000004</v>
           </cell>
           <cell r="U2">
-            <v>6.49</v>
+            <v>2.2196999999999996</v>
           </cell>
           <cell r="V2">
-            <v>7.73</v>
+            <v>3.6414</v>
           </cell>
           <cell r="W2">
-            <v>8.56</v>
+            <v>6.7825499999999996</v>
           </cell>
           <cell r="X2">
-            <v>6.99</v>
+            <v>7.5711999999999993</v>
           </cell>
           <cell r="Y2">
-            <v>7.89</v>
+            <v>6.9015499999999994</v>
           </cell>
         </row>
         <row r="3">
@@ -1524,150 +1524,150 @@
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>46.31</v>
+            <v>42.153333333333336</v>
           </cell>
           <cell r="C2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="D2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="E2">
-            <v>64.64</v>
+            <v>51.303333333333335</v>
           </cell>
           <cell r="F2">
-            <v>48.31</v>
+            <v>44.726666666666667</v>
           </cell>
           <cell r="G2">
-            <v>42</v>
+            <v>53.636666666666677</v>
           </cell>
           <cell r="H2">
-            <v>48.31</v>
+            <v>52.483333333333327</v>
           </cell>
           <cell r="I2">
-            <v>42</v>
+            <v>40.266666666666673</v>
           </cell>
           <cell r="J2">
-            <v>42</v>
+            <v>40.466666666666669</v>
           </cell>
           <cell r="K2">
-            <v>43</v>
+            <v>59.133333333333333</v>
           </cell>
           <cell r="L2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="M2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="N2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="O2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="P2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="Q2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="R2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="S2">
-            <v>43</v>
+            <v>41.06666666666667</v>
           </cell>
           <cell r="T2">
-            <v>43</v>
+            <v>40.866666666666667</v>
           </cell>
           <cell r="U2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="V2">
-            <v>43</v>
+            <v>40.6</v>
           </cell>
           <cell r="W2">
-            <v>48.31</v>
+            <v>45.860000000000007</v>
           </cell>
           <cell r="X2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
           <cell r="Y2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>49.87</v>
+            <v>36.216666666666669</v>
           </cell>
           <cell r="C3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="D3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="E3">
-            <v>49.87</v>
+            <v>45.351666666666667</v>
           </cell>
           <cell r="F3">
-            <v>49.87</v>
+            <v>40.36333333333333</v>
           </cell>
           <cell r="G3">
-            <v>49.87</v>
+            <v>61.338333333333338</v>
           </cell>
           <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
             <v>40.1</v>
           </cell>
-          <cell r="I3">
-            <v>39.4</v>
-          </cell>
-          <cell r="J3">
-            <v>39.4</v>
-          </cell>
-          <cell r="K3">
-            <v>95</v>
-          </cell>
-          <cell r="L3">
-            <v>40.1</v>
-          </cell>
-          <cell r="M3">
-            <v>40.1</v>
-          </cell>
-          <cell r="N3">
-            <v>40.1</v>
-          </cell>
-          <cell r="O3">
-            <v>40.1</v>
-          </cell>
-          <cell r="P3">
-            <v>49.87</v>
-          </cell>
-          <cell r="Q3">
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
             <v>40</v>
           </cell>
-          <cell r="R3">
-            <v>39.4</v>
-          </cell>
-          <cell r="S3">
-            <v>40</v>
-          </cell>
-          <cell r="T3">
-            <v>39.4</v>
-          </cell>
-          <cell r="U3">
-            <v>49.87</v>
-          </cell>
-          <cell r="V3">
-            <v>39.4</v>
-          </cell>
           <cell r="W3">
-            <v>49.87</v>
+            <v>42.63</v>
           </cell>
           <cell r="X3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
           <cell r="Y3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
         </row>
         <row r="4">
@@ -1822,150 +1822,150 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="C3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="D3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="E3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="F3">
-            <v>39.4</v>
+            <v>31.63</v>
           </cell>
           <cell r="G3">
-            <v>7.06</v>
+            <v>23.537500000000001</v>
           </cell>
           <cell r="H3">
-            <v>29.97</v>
+            <v>29.28</v>
           </cell>
           <cell r="I3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="J3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="K3">
-            <v>36.65</v>
+            <v>30.950000000000003</v>
           </cell>
           <cell r="L3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="M3">
-            <v>36.65</v>
+            <v>30.935000000000002</v>
           </cell>
           <cell r="N3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="O3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="P3">
-            <v>29.97</v>
+            <v>31.4925</v>
           </cell>
           <cell r="Q3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="R3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="S3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="T3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="U3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="V3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="W3">
-            <v>29.97</v>
+            <v>29.25</v>
           </cell>
           <cell r="X3">
-            <v>26.19</v>
+            <v>28.305</v>
           </cell>
           <cell r="Y3">
-            <v>26.19</v>
+            <v>27.532499999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="C4">
-            <v>2.2000000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="D4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="E4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="F4">
-            <v>37.51</v>
+            <v>34.22</v>
           </cell>
           <cell r="G4">
-            <v>37.520000000000003</v>
+            <v>18.045000000000002</v>
           </cell>
           <cell r="H4">
-            <v>37.520000000000003</v>
+            <v>29.509999999999998</v>
           </cell>
           <cell r="I4">
-            <v>20.02</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="J4">
-            <v>26</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="K4">
-            <v>37.51</v>
+            <v>32.85</v>
           </cell>
           <cell r="L4">
-            <v>37.51</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="M4">
-            <v>37.9</v>
+            <v>32.840000000000003</v>
           </cell>
           <cell r="N4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="O4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="P4">
-            <v>37.51</v>
+            <v>30.984999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="R4">
-            <v>25.67</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="S4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="T4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="U4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="V4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="W4">
-            <v>37.51</v>
+            <v>29.490000000000002</v>
           </cell>
           <cell r="X4">
-            <v>30.19</v>
+            <v>27.6</v>
           </cell>
           <cell r="Y4">
-            <v>30.19</v>
+            <v>27.085000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2239,7 +2239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2422,99 +2422,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>52.067596755081532</v>
+        <v>64.950760678213868</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>50.551930411183619</v>
+        <v>60.604364544977173</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>44.578421879350628</v>
+        <v>58.02996068144467</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>44.623000301229979</v>
+        <v>54.419108509217281</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>49.912973030912923</v>
+        <v>56.042506039323634</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>49.556345655878118</v>
+        <v>60.544926649138048</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>50.537070937223824</v>
+        <v>73.249776884752976</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>52.498521499915256</v>
+        <v>76.660026158523294</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>54.890896807440399</v>
+        <v>80.612646231825721</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>57.565602120201447</v>
+        <v>79.999692930984651</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>54.385674692807768</v>
+        <v>78.458022507657105</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>50.804541468499927</v>
+        <v>78.075391053192675</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>50.522211463264043</v>
+        <v>75.051488102376723</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>50.522211463264043</v>
+        <v>73.992750582742147</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>44.578421879350628</v>
+        <v>72.540237003173317</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>42.795285004176606</v>
+        <v>72.685116874281192</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>44.429827139752788</v>
+        <v>73.807007158244858</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>56.83748789617205</v>
+        <v>77.455008015371718</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>59.363598469335258</v>
+        <v>81.162446768337716</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>61.592519563302787</v>
+        <v>81.786544674648624</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>66.615021761709613</v>
+        <v>79.899391481756098</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>66.600162287749839</v>
+        <v>74.880604151839208</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>60.775248495514688</v>
+        <v>67.584602437585502</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>59.066408990139578</v>
+        <v>63.435094334315941</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2523,99 +2523,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>44.949908728345214</v>
+        <v>60.656372703836418</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>39.897687582018811</v>
+        <v>57.253553167045993</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>33.062329560518378</v>
+        <v>53.546114414079987</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>26.880788393248427</v>
+        <v>51.153739106554838</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>14.859473959783543</v>
+        <v>53.999328369853401</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>11.887579167826834</v>
+        <v>56.8820663180514</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>12.496817600177959</v>
+        <v>65.678874902243265</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>12.496817600177959</v>
+        <v>68.606191272320615</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>16.048231876566227</v>
+        <v>72.038729757030623</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>25.246246257672237</v>
+        <v>72.521662660723578</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>29.035412117417039</v>
+        <v>70.433906569374003</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>26.628177335932111</v>
+        <v>68.985107858295095</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>33.805303258507557</v>
+        <v>66.87506255600583</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>29.718947919567086</v>
+        <v>66.169237542916122</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>32.051885331253104</v>
+        <v>63.219631961899083</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>28.827379481980071</v>
+        <v>62.721839584246332</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>35.365548024284834</v>
+        <v>64.014613818747492</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>43.538258702165777</v>
+        <v>70.582501308971828</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>52.409364656156562</v>
+        <v>73.896164002003559</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>60.923843235112521</v>
+        <v>75.055202970866674</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>63.925456974988805</v>
+        <v>75.471268241740617</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>63.895738027069235</v>
+        <v>72.120456863809423</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>61.473643771624509</v>
+        <v>65.31481779022856</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>61.443924823704947</v>
+        <v>61.978865886257154</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2870,99 +2870,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$7</f>
-        <v>3.9823390212219896</v>
+        <v>37.65728754441735</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$7</f>
-        <v>4.7996100890100841</v>
+        <v>36.546660741715208</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$7</f>
-        <v>11.293200209435492</v>
+        <v>41.248736958521761</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$7</f>
-        <v>6.4787306464656247</v>
+        <v>45.395321460289729</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$7</f>
-        <v>6.553028016264542</v>
+        <v>47.736067525541614</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$7</f>
-        <v>8.8859654279505591</v>
+        <v>43.629696475177305</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$7</f>
-        <v>7.7120669851276586</v>
+        <v>40.416580412694451</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$7</f>
-        <v>9.0345601675483937</v>
+        <v>43.767298918913397</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$7</f>
-        <v>6.9542338131786972</v>
+        <v>38.273324186105071</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$7</f>
-        <v>6.6124659121036764</v>
+        <v>34.700155639839686</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$7</f>
-        <v>9.7775338655375705</v>
+        <v>34.145288022707405</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$7</f>
-        <v>13.953046048236747</v>
+        <v>30.119355019755901</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$7</f>
-        <v>14.487987110788954</v>
+        <v>33.507816589832686</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$7</f>
-        <v>15.825339767169472</v>
+        <v>27.851706421780687</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$7</f>
-        <v>16.895221892273888</v>
+        <v>29.115653276799868</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$7</f>
-        <v>16.360280829721681</v>
+        <v>24.03140996409013</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$7</f>
-        <v>6.4935901204254085</v>
+        <v>18.95814408776819</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$7</f>
-        <v>7.682348037208091</v>
+        <v>22.097731758229539</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$7</f>
-        <v>9.0494196415081767</v>
+        <v>14.987057403202245</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$7</f>
-        <v>7.0879690788167489</v>
+        <v>13.037293816780187</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$7</f>
-        <v>6.8947959173395628</v>
+        <v>14.620169561398209</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$7</f>
-        <v>5.3494106255220757</v>
+        <v>20.419517628685547</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$7</f>
-        <v>6.3301359068677892</v>
+        <v>23.949500828755319</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$7</f>
-        <v>30.922565310309551</v>
+        <v>21.15277323070503</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2971,99 +2971,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$7</f>
-        <v>40.298893378932966</v>
+        <v>30.224170034199727</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$7</f>
-        <v>42.379219733302662</v>
+        <v>31.784414799976997</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$7</f>
-        <v>58.026245812954727</v>
+        <v>43.519684359716045</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$7</f>
-        <v>65.782891219961741</v>
+        <v>49.337168414971309</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$7</f>
-        <v>71.592945538237103</v>
+        <v>53.694709153677827</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$7</f>
-        <v>71.162020793403386</v>
+        <v>53.371515595052543</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$7</f>
-        <v>70.671658152730529</v>
+        <v>53.003743614547901</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$7</f>
-        <v>74.074477689520961</v>
+        <v>55.555858267140721</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$7</f>
-        <v>68.947959173395631</v>
+        <v>51.71096938004672</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$7</f>
-        <v>59.586490578732004</v>
+        <v>44.689867934049005</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$7</f>
-        <v>61.280470610147333</v>
+        <v>45.960352957610496</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$7</f>
-        <v>50.12100566634988</v>
+        <v>37.590754249762412</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$7</f>
-        <v>57.119817901407934</v>
+        <v>42.839863426055949</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$7</f>
-        <v>42.616971316659196</v>
+        <v>31.962728487494395</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$7</f>
-        <v>44.875611358546294</v>
+        <v>33.656708518909724</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$7</f>
-        <v>40.298893378932966</v>
+        <v>30.224170034199727</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$7</f>
-        <v>27.029383132846267</v>
+        <v>20.272037349634701</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$7</f>
-        <v>33.701286940789075</v>
+        <v>25.275965205591802</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$7</f>
-        <v>22.021740408399211</v>
+        <v>16.516305306299408</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$7</f>
-        <v>19.317316147718604</v>
+        <v>14.487987110788954</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$7</f>
-        <v>21.56109671564592</v>
+        <v>16.170822536734441</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$7</f>
-        <v>25.320543627471157</v>
+        <v>18.990407720603365</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$7</f>
-        <v>27.059102080765832</v>
+        <v>20.294326560574373</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$7</f>
-        <v>20.803263543696961</v>
+        <v>15.60244765777272</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3072,99 +3072,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$7</f>
-        <v>24.41411571592436</v>
+        <v>41.503996717071409</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$7</f>
-        <v>23.047044111624274</v>
+        <v>39.179974989761263</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$7</f>
-        <v>24.428975189884145</v>
+        <v>41.529257822803046</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$7</f>
-        <v>24.384396768004795</v>
+        <v>41.453474505608149</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$7</f>
-        <v>25.142229939953758</v>
+        <v>42.741790897921383</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$7</f>
-        <v>20.981577231214359</v>
+        <v>35.668681293064409</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$7</f>
-        <v>18.351450340332676</v>
+        <v>31.197465578565545</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$7</f>
-        <v>17.311287163147828</v>
+        <v>29.429188177351307</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$7</f>
-        <v>15.528150287973801</v>
+        <v>26.397855489555457</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$7</f>
-        <v>14.131359735754149</v>
+        <v>24.023311550782051</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$7</f>
-        <v>11.590389688631163</v>
+        <v>19.703662470672977</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$7</f>
-        <v>11.634968110510513</v>
+        <v>19.779445787867875</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$7</f>
-        <v>12.704850235614931</v>
+        <v>21.59824540054538</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$7</f>
-        <v>12.704850235614931</v>
+        <v>21.59824540054538</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$7</f>
-        <v>14.116500261794366</v>
+        <v>23.998050445050417</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$7</f>
-        <v>11.070308100038739</v>
+        <v>18.819523770065857</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$7</f>
-        <v>9.3168901727842801</v>
+        <v>15.838713293733276</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$7</f>
-        <v>10.371912823928913</v>
+        <v>17.63225180067915</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$7</f>
-        <v>7.7417859330472254</v>
+        <v>13.161036086180282</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$7</f>
-        <v>7.6229101413689575</v>
+        <v>12.958947240327227</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$7</f>
-        <v>8.0389754122428965</v>
+        <v>13.666258200812923</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$7</f>
-        <v>14.116500261794366</v>
+        <v>23.998050445050417</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$7</f>
-        <v>15.959075032807524</v>
+        <v>27.130427555772791</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$7</f>
-        <v>15.959075032807524</v>
+        <v>27.130427555772791</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>37.104106477579506</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$9</f>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>38.590053873557856</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$9</f>
@@ -3891,99 +3891,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>42.141468149946128</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>42.141468149946128</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>40.469777329470475</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>42.8844418479353</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>42.8844418479353</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>42.141468149946128</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>55.462986554892076</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>45.692882426334393</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$9</f>
-        <v>6.2706980110286548</v>
+        <v>48.263571421376952</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>51.82984517172499</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.278430895336719</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.278430895336719</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.263571421376952</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.293290369296514</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.263571421376952</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>48.263571421376952</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>51.837274908704892</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$9</f>
-        <v>8.6184948966744539</v>
+        <v>54.794310226701811</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$9</f>
-        <v>8.7670896362722903</v>
+        <v>54.794310226701811</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$9</f>
-        <v>8.7670896362722903</v>
+        <v>54.794310226701811</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$9</f>
-        <v>9.0642791154679596</v>
+        <v>54.794310226701811</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$9</f>
-        <v>8.7670896362722903</v>
+        <v>52.557959395754395</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$9</f>
-        <v>8.3213054174787828</v>
+        <v>45.692882426334393</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$9</f>
-        <v>54.385674692807768</v>
+        <v>45.692882426334393</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>47.17882982231275</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$9</f>
@@ -4685,99 +4685,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$7</f>
-        <v>11.872719693867051</v>
+        <v>15.245820282737915</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$7</f>
-        <v>11.872719693867051</v>
+        <v>16.210943116425856</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$7</f>
-        <v>11.872719693867051</v>
+        <v>14.985556596332305</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$7</f>
-        <v>15.39441502233575</v>
+        <v>13.039188399710058</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$7</f>
-        <v>14.398830267030252</v>
+        <v>11.826358135112526</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$7</f>
-        <v>13.195212876287787</v>
+        <v>9.4076072613087582</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$7</f>
-        <v>12.021314433464886</v>
+        <v>8.4801531941088708</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$7</f>
-        <v>10.386772297888696</v>
+        <v>7.2707406085220869</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$7</f>
-        <v>3.9971984951817729</v>
+        <v>5.9778177792813212</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$7</f>
-        <v>6.6719038079428108</v>
+        <v>6.6689319131508533</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$7</f>
-        <v>9.6437985998995188</v>
+        <v>6.2741899874092049</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$7</f>
-        <v>11.501232844872462</v>
+        <v>6.0093941614458615</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$7</f>
-        <v>11.36749757923441</v>
+        <v>5.4608566802204512</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$7</f>
-        <v>12.467098652258393</v>
+        <v>6.227902726024479</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$7</f>
-        <v>14.101640787834581</v>
+        <v>6.6710865368750234</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$7</f>
-        <v>12.363082334539907</v>
+        <v>5.9356911706053346</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$7</f>
-        <v>11.36749757923441</v>
+        <v>4.4221794504315826</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$7</f>
-        <v>9.4654849123821165</v>
+        <v>3.8052140916213695</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$7</f>
-        <v>9.6437985998995188</v>
+        <v>4.4787940462183577</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$7</f>
-        <v>9.6437985998995188</v>
+        <v>3.2983574348531524</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$7</f>
-        <v>11.486373370912679</v>
+        <v>5.4109288477155788</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$7</f>
-        <v>12.719709709574714</v>
+        <v>10.078512510592986</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$7</f>
-        <v>10.386772297888696</v>
+        <v>11.250404924431315</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$7</f>
-        <v>11.724124954269215</v>
+        <v>10.25534025071441</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5158,99 +5158,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$8</f>
-        <v>68.814223907757594</v>
+        <v>62.63763589847423</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$8</f>
-        <v>68.814223907757594</v>
+        <v>63.132951697133684</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$8</f>
-        <v>68.814223907757594</v>
+        <v>63.132951697133684</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$8</f>
-        <v>96.051639676040821</v>
+        <v>76.234054571676168</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$8</f>
-        <v>71.786118699714294</v>
+        <v>66.461473864125196</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$8</f>
-        <v>62.409790631090878</v>
+        <v>79.701265162292344</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$8</f>
-        <v>71.786118699714294</v>
+        <v>77.987472498930615</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$8</f>
-        <v>62.409790631090878</v>
+        <v>59.834148478061742</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$8</f>
-        <v>62.409790631090878</v>
+        <v>60.131337957257401</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>87.869022682186682</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.676185335782804</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.676185335782804</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$8</f>
-        <v>147.10879220185706</v>
+        <v>88.413870060712071</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$8</f>
-        <v>147.10879220185706</v>
+        <v>88.413870060712071</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>65.515420688685637</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.626653755916863</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.626653755916863</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>61.022906394844419</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.725716915648746</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>65.515420688685637</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$8</f>
-        <v>63.895738027069235</v>
+        <v>60.329464276721183</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$8</f>
-        <v>71.786118699714294</v>
+        <v>68.145547579567335</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$8</f>
-        <v>52.602537817633738</v>
+        <v>55.871622088786118</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$8</f>
-        <v>52.602537817633738</v>
+        <v>55.871622088786118</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5259,99 +5259,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>53.816061524349401</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>54.80669312166831</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>54.80669312166831</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>67.390190986611657</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>59.977790059672969</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>91.145536690318963</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$8</f>
-        <v>59.586490578732004</v>
+        <v>90.288640358638105</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$8</f>
-        <v>58.546327401547153</v>
+        <v>59.190237939804447</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$8</f>
-        <v>58.546327401547153</v>
+        <v>59.784616898195786</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$8</f>
-        <v>141.16500261794366</v>
+        <v>73.207675041866921</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$8</f>
-        <v>59.586490578732004</v>
+        <v>59.611256368664975</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$8</f>
-        <v>59.586490578732004</v>
+        <v>59.611256368664975</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$8</f>
-        <v>59.586490578732004</v>
+        <v>73.480098731129615</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$8</f>
-        <v>59.586490578732004</v>
+        <v>73.480098731129615</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>62.030874045116406</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$8</f>
-        <v>59.437895839134171</v>
+        <v>59.586490578732004</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$8</f>
-        <v>58.546327401547153</v>
+        <v>60.032274797525517</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$8</f>
-        <v>59.437895839134171</v>
+        <v>60.378995856587139</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$8</f>
-        <v>58.546327401547153</v>
+        <v>60.230401116989292</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>62.030874045116406</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$8</f>
-        <v>58.546327401547153</v>
+        <v>59.437895839134171</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$8</f>
-        <v>74.104196637440523</v>
+        <v>63.345937490557247</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$8</f>
-        <v>55.574432609590446</v>
+        <v>57.654758963960141</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$8</f>
-        <v>55.574432609590446</v>
+        <v>57.654758963960141</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5116D5-BC70-4C53-B152-1396D3D4768A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5706,99 +5706,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$9</f>
-        <v>58.546327401547153</v>
+        <v>41.4839364272257</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$9</f>
-        <v>58.546327401547153</v>
+        <v>41.4839364272257</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$9</f>
-        <v>58.546327401547153</v>
+        <v>41.4839364272257</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$9</f>
-        <v>58.546327401547153</v>
+        <v>41.4839364272257</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$9</f>
-        <v>58.546327401547153</v>
+        <v>47.00051613479534</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$9</f>
-        <v>10.49078861560718</v>
+        <v>34.975486832840517</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$9</f>
-        <v>44.533843457471278</v>
+        <v>43.508539754246215</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$9</f>
-        <v>30.536218987355181</v>
+        <v>39.99798903124735</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$9</f>
-        <v>30.536218987355181</v>
+        <v>39.99798903124735</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.990071905530066</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>49.277730519132177</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.96778269459039</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$9</f>
-        <v>44.533843457471278</v>
+        <v>43.486250543306539</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$9</f>
-        <v>44.533843457471278</v>
+        <v>43.486250543306539</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$9</f>
-        <v>44.533843457471278</v>
+        <v>46.796198367848319</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.945493483650715</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>49.277730519132177</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.945493483650715</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.945493483650715</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.945493483650715</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$9</f>
-        <v>54.459972062606681</v>
+        <v>45.945493483650715</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$9</f>
-        <v>44.533843457471278</v>
+        <v>43.463961332366864</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$9</f>
-        <v>38.916962300673099</v>
+        <v>42.059741043167314</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$9</f>
-        <v>38.916962300673099</v>
+        <v>40.911846679774037</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5807,99 +5807,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$9</f>
-        <v>3.2988032190719467</v>
+        <v>47.171400085332849</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$9</f>
-        <v>3.2690842711523795</v>
+        <v>47.171400085332849</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$9</f>
-        <v>3.2988032190719467</v>
+        <v>47.171400085332849</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$9</f>
-        <v>3.2988032190719467</v>
+        <v>47.171400085332849</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>50.849119890379278</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$9</f>
-        <v>55.752746297107855</v>
+        <v>26.813920760429404</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$9</f>
-        <v>55.752746297107855</v>
+        <v>43.850307655321231</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$9</f>
-        <v>29.748666867486651</v>
+        <v>36.844065683283297</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$9</f>
-        <v>38.634632295437207</v>
+        <v>36.844065683283297</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.81337195788894</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>51.005144366957012</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$9</f>
-        <v>56.317406307579624</v>
+        <v>48.798512483929159</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$9</f>
-        <v>56.317406307579624</v>
+        <v>43.83544818136145</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$9</f>
-        <v>56.317406307579624</v>
+        <v>43.83544818136145</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>46.042080064389303</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.78365300996937</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$9</f>
-        <v>38.144269654764358</v>
+        <v>51.005144366957012</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.78365300996937</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.78365300996937</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.78365300996937</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>48.78365300996937</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$9</f>
-        <v>55.737886823148067</v>
+        <v>43.820588707401669</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$9</f>
-        <v>44.860751884586513</v>
+        <v>41.012148129002576</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$9</f>
-        <v>44.860751884586513</v>
+        <v>40.246885220073729</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS1/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96978848-0B5D-4FDC-8613-40C141C0E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51B821-CC9E-4541-A4A7-20961EA33B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,16 +2256,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5516,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5116D5-BC70-4C53-B152-1396D3D4768A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
